--- a/outputs-GTDB-r202/o__Christensenellales.xlsx
+++ b/outputs-GTDB-r202/o__Christensenellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,11 +585,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -686,11 +681,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -787,11 +777,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -888,11 +873,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -989,11 +969,6 @@
           <t>f__RUG350</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>f__RUG350</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1090,11 +1065,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1191,11 +1161,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1292,11 +1257,6 @@
           <t>f__CAG-138</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>f__CAG-138</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1393,11 +1353,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1494,11 +1449,6 @@
           <t>f__RUG350</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>f__RUG350</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1595,11 +1545,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1696,11 +1641,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1797,11 +1737,6 @@
           <t>f__CAG-138</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>f__CAG-138</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1898,11 +1833,6 @@
           <t>f__CAG-138</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>f__CAG-138</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1999,11 +1929,6 @@
           <t>f__CAG-138</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>f__CAG-138</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2100,11 +2025,6 @@
           <t>f__CAG-138</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>f__CAG-138</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2201,11 +2121,6 @@
           <t>f__CAG-138</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>f__CAG-138</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2302,11 +2217,6 @@
           <t>f__UBA1242</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>f__UBA1242</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2403,11 +2313,6 @@
           <t>f__Borkfalkiaceae</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>f__Borkfalkiaceae</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2504,11 +2409,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2605,11 +2505,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2706,11 +2601,6 @@
           <t>f__UBA1242</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>f__UBA1242</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2807,11 +2697,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2908,11 +2793,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -3009,11 +2889,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -3110,11 +2985,6 @@
           <t>f__CAG-138</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>f__CAG-138</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -3211,11 +3081,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3312,11 +3177,6 @@
           <t>f__CAG-74</t>
         </is>
       </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3409,11 +3269,6 @@
         <v>0.999999998810931</v>
       </c>
       <c r="AD29" t="inlineStr">
-        <is>
-          <t>f__CAG-74</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
         <is>
           <t>f__CAG-74</t>
         </is>

--- a/outputs-GTDB-r202/o__Christensenellales.xlsx
+++ b/outputs-GTDB-r202/o__Christensenellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD29"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -681,6 +686,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -777,6 +787,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -873,6 +888,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -969,6 +989,11 @@
           <t>f__RUG350</t>
         </is>
       </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>f__RUG350</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1065,6 +1090,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1161,6 +1191,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1257,6 +1292,11 @@
           <t>f__CAG-138</t>
         </is>
       </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>f__CAG-138</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1353,6 +1393,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1449,6 +1494,11 @@
           <t>f__RUG350</t>
         </is>
       </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>f__RUG350</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1545,6 +1595,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1641,6 +1696,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1737,6 +1797,11 @@
           <t>f__CAG-138</t>
         </is>
       </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>f__CAG-138</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1833,6 +1898,11 @@
           <t>f__CAG-138</t>
         </is>
       </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>f__CAG-138</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1929,6 +1999,11 @@
           <t>f__CAG-138</t>
         </is>
       </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>f__CAG-138</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2025,6 +2100,11 @@
           <t>f__CAG-138</t>
         </is>
       </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>f__CAG-138</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2121,6 +2201,11 @@
           <t>f__CAG-138</t>
         </is>
       </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>f__CAG-138</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2217,6 +2302,11 @@
           <t>f__UBA1242</t>
         </is>
       </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>f__UBA1242</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2313,6 +2403,11 @@
           <t>f__Borkfalkiaceae</t>
         </is>
       </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2409,6 +2504,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2505,6 +2605,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2601,6 +2706,11 @@
           <t>f__UBA1242</t>
         </is>
       </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>f__UBA1242</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2697,6 +2807,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2793,6 +2908,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2889,6 +3009,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2985,6 +3110,11 @@
           <t>f__CAG-138</t>
         </is>
       </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>f__CAG-138</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -3081,6 +3211,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3177,6 +3312,11 @@
           <t>f__CAG-74</t>
         </is>
       </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3269,6 +3409,11 @@
         <v>0.999999998810931</v>
       </c>
       <c r="AD29" t="inlineStr">
+        <is>
+          <t>f__CAG-74</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
         <is>
           <t>f__CAG-74</t>
         </is>
